--- a/biology/Médecine/Unité_de_soins_intensifs_de_cardiologie/Unité_de_soins_intensifs_de_cardiologie.xlsx
+++ b/biology/Médecine/Unité_de_soins_intensifs_de_cardiologie/Unité_de_soins_intensifs_de_cardiologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_de_soins_intensifs_de_cardiologie</t>
+          <t>Unité_de_soins_intensifs_de_cardiologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une unité de soins intensifs de cardiologie (parfois abrégée USIC) est un service d'hospitalisation situé au sein d'un service de cardiologie et permettant la surveillance 24 h sur 24 des constantes vitales des patients.
 Elle implique la présence, outre d'une équipe soignante, d'un cardiologue de garde sur place.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_de_soins_intensifs_de_cardiologie</t>
+          <t>Unité_de_soins_intensifs_de_cardiologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Finalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elles ont été créées dans les années 1960 pour la prise en charge de l'arrêt cardio-circulatoire chez les patients faisant un infarctus du myocarde, ce qui implique un scope de surveillance de l'électrocardiogramme, du personnel médical et paramédical présents 24 h sur 24 et du matériel de réanimation (dont un défibrillateur). Son recrutement a évolué, prenant en charge moins d'infarctus et plus d'insuffisance cardiaque aiguë, ainsi que des patients cardiaques porteurs d'autres maladies graves[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles ont été créées dans les années 1960 pour la prise en charge de l'arrêt cardio-circulatoire chez les patients faisant un infarctus du myocarde, ce qui implique un scope de surveillance de l'électrocardiogramme, du personnel médical et paramédical présents 24 h sur 24 et du matériel de réanimation (dont un défibrillateur). Son recrutement a évolué, prenant en charge moins d'infarctus et plus d'insuffisance cardiaque aiguë, ainsi que des patients cardiaques porteurs d'autres maladies graves.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_de_soins_intensifs_de_cardiologie</t>
+          <t>Unité_de_soins_intensifs_de_cardiologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première unité de ce genre est ouverte en 1962 à Kansas City dans le Kansas, aux USA. Dans les quatre ans qui suivent, près de 200 unités ouvrent aux États-Unis[2]. Elle démontre alors une diminution de la mortalité de l'infarctus lorsqu'elle est prise en charge par ce type de structure[3].
-L'apparition des soins intensifs de cardiologie est considérée, à la fin des années 1990, comme le progrès le plus significatif de la prise en charge de l'infarctus du myocarde[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première unité de ce genre est ouverte en 1962 à Kansas City dans le Kansas, aux USA. Dans les quatre ans qui suivent, près de 200 unités ouvrent aux États-Unis. Elle démontre alors une diminution de la mortalité de l'infarctus lorsqu'elle est prise en charge par ce type de structure.
+L'apparition des soins intensifs de cardiologie est considérée, à la fin des années 1990, comme le progrès le plus significatif de la prise en charge de l'infarctus du myocarde.
 </t>
         </is>
       </c>
